--- a/test/sample_sheet_not_num_format.xlsx
+++ b/test/sample_sheet_not_num_format.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="507">
   <si>
     <t xml:space="preserve">PLATEFORME DE SÉQUENÇAGE DE NOUVELLE GÉNÉRATION</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t xml:space="preserve">TCAGTTCGAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36H</t>
   </si>
   <si>
     <t xml:space="preserve">C05</t>
@@ -2019,9 +2022,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>740160</xdr:colOff>
+      <xdr:colOff>739800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2035,7 +2038,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5542200" y="50760"/>
-          <a:ext cx="10942560" cy="1016280"/>
+          <a:ext cx="10942200" cy="1015920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2058,10 +2061,10 @@
   <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M47" activeCellId="0" sqref="M47"/>
+      <selection pane="topLeft" activeCell="L56" activeCellId="0" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18"/>
@@ -3635,8 +3638,8 @@
         <v>195</v>
       </c>
       <c r="K56" s="36"/>
-      <c r="L56" s="37" t="n">
-        <v>36</v>
+      <c r="L56" s="37" t="s">
+        <v>196</v>
       </c>
       <c r="M56" s="37" t="n">
         <v>33.2</v>
@@ -3652,22 +3655,22 @@
         <v>35</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I57" s="34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J57" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K57" s="36"/>
       <c r="L57" s="37" t="n">
@@ -3687,22 +3690,22 @@
         <v>36</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F58" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H58" s="35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I58" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J58" s="35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K58" s="36"/>
       <c r="L58" s="37" t="n">
@@ -3722,22 +3725,22 @@
         <v>37</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F59" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I59" s="34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J59" s="35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K59" s="36"/>
       <c r="L59" s="37" t="n">
@@ -3757,22 +3760,22 @@
         <v>38</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F60" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I60" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J60" s="35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K60" s="36"/>
       <c r="L60" s="37" t="n">
@@ -3792,22 +3795,22 @@
         <v>39</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F61" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I61" s="34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J61" s="35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K61" s="36"/>
       <c r="L61" s="37" t="n">
@@ -3827,22 +3830,22 @@
         <v>40</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H62" s="35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I62" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J62" s="35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K62" s="36"/>
       <c r="L62" s="37" t="n">
@@ -3862,22 +3865,22 @@
         <v>41</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F63" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H63" s="35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I63" s="34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J63" s="35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K63" s="36"/>
       <c r="L63" s="37" t="n">
@@ -3897,22 +3900,22 @@
         <v>42</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F64" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I64" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J64" s="35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K64" s="36"/>
       <c r="L64" s="37" t="n">
@@ -3932,22 +3935,22 @@
         <v>43</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F65" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I65" s="34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J65" s="35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K65" s="36"/>
       <c r="L65" s="37" t="n">
@@ -3967,22 +3970,22 @@
         <v>44</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F66" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I66" s="34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K66" s="36"/>
       <c r="L66" s="37" t="n">
@@ -4002,22 +4005,22 @@
         <v>45</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F67" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H67" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I67" s="34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J67" s="35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K67" s="36"/>
       <c r="L67" s="37" t="n">
@@ -4037,22 +4040,22 @@
         <v>46</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F68" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H68" s="35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I68" s="34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J68" s="35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K68" s="36"/>
       <c r="L68" s="37" t="n">
@@ -4072,22 +4075,22 @@
         <v>47</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F69" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I69" s="34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J69" s="35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K69" s="36"/>
       <c r="L69" s="37" t="n">
@@ -4107,22 +4110,22 @@
         <v>48</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F70" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I70" s="34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J70" s="35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K70" s="36"/>
       <c r="L70" s="37" t="n">
@@ -4142,22 +4145,22 @@
         <v>49</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F71" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G71" s="34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I71" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J71" s="35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K71" s="36"/>
       <c r="L71" s="37" t="n">
@@ -4177,22 +4180,22 @@
         <v>50</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F72" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H72" s="35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I72" s="34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J72" s="35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K72" s="36"/>
       <c r="L72" s="37" t="n">
@@ -4212,22 +4215,22 @@
         <v>51</v>
       </c>
       <c r="E73" s="39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F73" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G73" s="34" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H73" s="35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I73" s="34" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J73" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K73" s="36"/>
       <c r="L73" s="37" t="n">
@@ -4247,22 +4250,22 @@
         <v>52</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F74" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I74" s="34" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J74" s="35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K74" s="36"/>
       <c r="L74" s="37" t="n">
@@ -4282,22 +4285,22 @@
         <v>53</v>
       </c>
       <c r="E75" s="39" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F75" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H75" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I75" s="34" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J75" s="35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K75" s="36"/>
       <c r="L75" s="37" t="n">
@@ -4317,22 +4320,22 @@
         <v>54</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F76" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I76" s="34" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J76" s="35" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K76" s="36"/>
       <c r="L76" s="37" t="n">
@@ -4352,22 +4355,22 @@
         <v>55</v>
       </c>
       <c r="E77" s="39" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F77" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I77" s="34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J77" s="35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K77" s="36"/>
       <c r="L77" s="37" t="n">
@@ -4387,22 +4390,22 @@
         <v>56</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F78" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H78" s="35" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I78" s="34" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J78" s="35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K78" s="36"/>
       <c r="L78" s="37" t="n">
@@ -4422,22 +4425,22 @@
         <v>57</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F79" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H79" s="35" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I79" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J79" s="35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K79" s="36"/>
       <c r="L79" s="37" t="n">
@@ -4457,22 +4460,22 @@
         <v>58</v>
       </c>
       <c r="E80" s="39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F80" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H80" s="35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I80" s="34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J80" s="35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K80" s="36"/>
       <c r="L80" s="37" t="n">
@@ -4492,22 +4495,22 @@
         <v>59</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F81" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H81" s="35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I81" s="34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J81" s="35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K81" s="36"/>
       <c r="L81" s="37" t="n">
@@ -4527,22 +4530,22 @@
         <v>60</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F82" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G82" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H82" s="35" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I82" s="34" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J82" s="35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K82" s="36"/>
       <c r="L82" s="37" t="n">
@@ -4562,22 +4565,22 @@
         <v>61</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F83" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G83" s="34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H83" s="35" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I83" s="34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J83" s="35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K83" s="36"/>
       <c r="L83" s="37" t="n">
@@ -4597,22 +4600,22 @@
         <v>62</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F84" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G84" s="34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H84" s="35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I84" s="34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J84" s="35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K84" s="36"/>
       <c r="L84" s="37" t="n">
@@ -4632,22 +4635,22 @@
         <v>63</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F85" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G85" s="34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H85" s="35" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I85" s="34" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J85" s="35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K85" s="36"/>
       <c r="L85" s="37" t="n">
@@ -4667,22 +4670,22 @@
         <v>64</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F86" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G86" s="34" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H86" s="35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I86" s="34" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J86" s="35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K86" s="36"/>
       <c r="L86" s="37" t="n">
@@ -4702,22 +4705,22 @@
         <v>65</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F87" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H87" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I87" s="34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J87" s="35" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K87" s="36"/>
       <c r="L87" s="37" t="n">
@@ -4737,22 +4740,22 @@
         <v>66</v>
       </c>
       <c r="E88" s="39" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F88" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H88" s="35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I88" s="34" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J88" s="35" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K88" s="36"/>
       <c r="L88" s="37" t="n">
@@ -4772,22 +4775,22 @@
         <v>67</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F89" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G89" s="34" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H89" s="35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I89" s="34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J89" s="35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K89" s="36"/>
       <c r="L89" s="37" t="n">
@@ -4807,22 +4810,22 @@
         <v>68</v>
       </c>
       <c r="E90" s="39" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F90" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H90" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I90" s="34" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J90" s="35" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K90" s="36"/>
       <c r="L90" s="37" t="n">
@@ -4842,22 +4845,22 @@
         <v>69</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F91" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G91" s="34" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H91" s="35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I91" s="34" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J91" s="35" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K91" s="36"/>
       <c r="L91" s="37" t="n">
@@ -4877,22 +4880,22 @@
         <v>70</v>
       </c>
       <c r="E92" s="39" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F92" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H92" s="35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I92" s="34" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J92" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K92" s="36"/>
       <c r="L92" s="37" t="n">
@@ -4912,22 +4915,22 @@
         <v>71</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F93" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H93" s="35" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I93" s="34" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J93" s="35" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K93" s="36"/>
       <c r="L93" s="37" t="n">
@@ -4947,22 +4950,22 @@
         <v>72</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F94" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H94" s="35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I94" s="34" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J94" s="35" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K94" s="36"/>
       <c r="L94" s="37" t="n">
@@ -4982,22 +4985,22 @@
         <v>73</v>
       </c>
       <c r="E95" s="38" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F95" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I95" s="34" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J95" s="35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K95" s="36"/>
       <c r="L95" s="37" t="n">
@@ -5017,22 +5020,22 @@
         <v>74</v>
       </c>
       <c r="E96" s="39" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F96" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I96" s="34" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J96" s="35" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K96" s="36"/>
       <c r="L96" s="37" t="n">
@@ -5052,22 +5055,22 @@
         <v>75</v>
       </c>
       <c r="E97" s="39" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F97" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H97" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I97" s="34" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J97" s="40" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K97" s="36"/>
       <c r="L97" s="37" t="n">
@@ -5087,22 +5090,22 @@
         <v>76</v>
       </c>
       <c r="E98" s="39" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F98" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G98" s="34" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H98" s="35" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I98" s="34" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J98" s="40" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K98" s="36"/>
       <c r="L98" s="37" t="n">
@@ -5122,22 +5125,22 @@
         <v>77</v>
       </c>
       <c r="E99" s="39" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F99" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G99" s="34" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H99" s="35" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I99" s="34" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J99" s="40" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K99" s="36"/>
       <c r="L99" s="37" t="n">
@@ -5157,22 +5160,22 @@
         <v>78</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F100" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G100" s="34" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H100" s="35" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I100" s="34" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J100" s="40" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K100" s="36"/>
       <c r="L100" s="37" t="n">
@@ -5192,22 +5195,22 @@
         <v>79</v>
       </c>
       <c r="E101" s="39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F101" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G101" s="34" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H101" s="35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I101" s="34" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J101" s="40" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K101" s="36"/>
       <c r="L101" s="37" t="n">
@@ -5227,22 +5230,22 @@
         <v>80</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F102" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G102" s="34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H102" s="35" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I102" s="34" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J102" s="40" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K102" s="36"/>
       <c r="L102" s="37" t="n">
@@ -5262,22 +5265,22 @@
         <v>81</v>
       </c>
       <c r="E103" s="38" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F103" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G103" s="34" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H103" s="35" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I103" s="34" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J103" s="40" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K103" s="36"/>
       <c r="L103" s="37" t="n">
@@ -5297,22 +5300,22 @@
         <v>82</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F104" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G104" s="34" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H104" s="35" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I104" s="34" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J104" s="40" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K104" s="36"/>
       <c r="L104" s="37" t="n">
@@ -5332,22 +5335,22 @@
         <v>83</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F105" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G105" s="34" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H105" s="35" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I105" s="34" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J105" s="40" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K105" s="36"/>
       <c r="L105" s="37" t="n">
@@ -5367,22 +5370,22 @@
         <v>84</v>
       </c>
       <c r="E106" s="39" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F106" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H106" s="35" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I106" s="34" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J106" s="40" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K106" s="36"/>
       <c r="L106" s="37" t="n">
@@ -5402,22 +5405,22 @@
         <v>85</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F107" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H107" s="35" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I107" s="34" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J107" s="40" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K107" s="36"/>
       <c r="L107" s="37" t="n">
@@ -5437,22 +5440,22 @@
         <v>86</v>
       </c>
       <c r="E108" s="39" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F108" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H108" s="35" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I108" s="34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J108" s="40" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K108" s="36"/>
       <c r="L108" s="37" t="n">
@@ -5472,22 +5475,22 @@
         <v>87</v>
       </c>
       <c r="E109" s="39" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F109" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H109" s="35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I109" s="34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J109" s="40" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K109" s="36"/>
       <c r="L109" s="37" t="n">
@@ -5507,22 +5510,22 @@
         <v>88</v>
       </c>
       <c r="E110" s="39" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F110" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H110" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I110" s="34" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J110" s="40" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K110" s="36"/>
       <c r="L110" s="37" t="n">
@@ -5542,22 +5545,22 @@
         <v>89</v>
       </c>
       <c r="E111" s="38" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F111" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H111" s="35" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I111" s="34" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J111" s="40" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K111" s="36"/>
       <c r="L111" s="37" t="n">
@@ -5577,22 +5580,22 @@
         <v>90</v>
       </c>
       <c r="E112" s="39" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F112" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H112" s="35" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I112" s="34" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J112" s="40" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K112" s="36"/>
       <c r="L112" s="37" t="n">
@@ -5612,22 +5615,22 @@
         <v>91</v>
       </c>
       <c r="E113" s="39" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F113" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H113" s="35" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I113" s="34" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J113" s="40" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K113" s="36"/>
       <c r="L113" s="37" t="n">
@@ -5647,22 +5650,22 @@
         <v>92</v>
       </c>
       <c r="E114" s="39" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F114" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G114" s="34" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H114" s="35" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I114" s="34" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J114" s="40" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K114" s="36"/>
       <c r="L114" s="37" t="n">
@@ -5682,22 +5685,22 @@
         <v>93</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F115" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G115" s="34" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H115" s="35" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I115" s="34" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J115" s="40" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K115" s="36"/>
       <c r="L115" s="37" t="n">
@@ -5717,22 +5720,22 @@
         <v>94</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F116" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G116" s="34" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H116" s="35" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I116" s="34" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J116" s="40" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K116" s="36"/>
       <c r="L116" s="37" t="n">
@@ -5752,22 +5755,22 @@
         <v>95</v>
       </c>
       <c r="E117" s="39" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F117" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G117" s="34" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H117" s="35" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I117" s="34" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J117" s="40" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K117" s="36"/>
       <c r="L117" s="37" t="n">
@@ -5787,22 +5790,22 @@
         <v>96</v>
       </c>
       <c r="E118" s="39" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F118" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G118" s="34" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H118" s="35" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I118" s="41" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J118" s="40" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K118" s="32"/>
       <c r="L118" s="37" t="n">
